--- a/hourly datasets/cap_gen_year-2final.xlsx
+++ b/hourly datasets/cap_gen_year-2final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.08765202705086357</v>
+        <v>0.08153196399554162</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.015020793603937</v>
+        <v>-0.002531718893118817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002612771101081749</v>
+        <v>0.0005331245300238389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004696160011724151</v>
+        <v>-3.779610287713201</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1672786041142581</v>
+        <v>0.02395263000825441</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009899798315684778</v>
+        <v>-0.003576626419837724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02014178889218923</v>
+        <v>-0.001486811366399911</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1026728206548006</v>
+        <v>0.0790002451024228</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009728991966269362</v>
+        <v>-0.00243516539028261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004756764735614934</v>
+        <v>0.0007689672475205888</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.209863495701164</v>
+        <v>-2.471102375843091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1542844315090773</v>
+        <v>0.1720778460165632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004057973580889069</v>
+        <v>-0.003942317176089138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01905218657444982</v>
+        <v>-0.0009280136044760815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09738101901713293</v>
+        <v>0.07909679860525901</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01716427859826028</v>
+        <v>0.01639614775064075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004046206428036844</v>
+        <v>0.001670676520155925</v>
       </c>
       <c r="D5" t="n">
-        <v>1.595568348163766</v>
+        <v>7.209847351451951</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1359784765894399</v>
+        <v>0.1050469992975436</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009172740036528661</v>
+        <v>0.01312167348506571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02551291881887561</v>
+        <v>0.01967062201621579</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1048163056491239</v>
+        <v>0.09792811174618238</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02632238974115497</v>
+        <v>0.02606912521302118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005086621126611474</v>
+        <v>0.002397724710856256</v>
       </c>
       <c r="D6" t="n">
-        <v>5.374129961272239</v>
+        <v>16.34108086660036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9058356559069429</v>
+        <v>0.06482583496268202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01737691896535348</v>
+        <v>0.02136966179019903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03342209506035546</v>
+        <v>0.03076858863584334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1139744167920185</v>
+        <v>0.1076010892085628</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03811990016531464</v>
+        <v>0.06194933849454791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004488930389180139</v>
+        <v>0.002702056733527469</v>
       </c>
       <c r="D7" t="n">
-        <v>5.062700070051994</v>
+        <v>19.02017140743589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9712076082111349</v>
+        <v>0.004183796074436664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03044970497353689</v>
+        <v>0.0566533943456923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04372839629863352</v>
+        <v>0.06724528264340351</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1257719272161782</v>
+        <v>0.1434813024900895</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03248820726886189</v>
+        <v>0.07832023662514136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001294436617103364</v>
+        <v>0.004773292697065111</v>
       </c>
       <c r="D8" t="n">
-        <v>3.25493300079154</v>
+        <v>15.22462831511043</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2950323289490218</v>
+        <v>2.167649901899604e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02907814987052379</v>
+        <v>0.06896473453858969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03895384707606439</v>
+        <v>0.08767573871169303</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1201402343197255</v>
+        <v>0.159852200620683</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03554401228349424</v>
+        <v>0.08952563088236325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007535275941663105</v>
+        <v>0.00361650455291395</v>
       </c>
       <c r="D9" t="n">
-        <v>4.168948457131744</v>
+        <v>19.11372881127244</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4416267690961033</v>
+        <v>1.388182492630752e-13</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03298643571319523</v>
+        <v>0.08243739716695214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04117157561555093</v>
+        <v>0.09661386459777435</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1231960393343578</v>
+        <v>0.1710575948779049</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08765202705086357</v>
+        <v>-0.08153196399554162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001114105778227671</v>
+        <v>0.0003939230741259212</v>
       </c>
       <c r="D10" t="n">
-        <v>-102.4254235811067</v>
+        <v>-218.0836416302556</v>
       </c>
       <c r="E10" t="n">
-        <v>3.488736641562179e-110</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08983566043521837</v>
+        <v>-0.08230404106765341</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08546839366650869</v>
+        <v>-0.08075988692342985</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03135833244999425</v>
+        <v>-0.02763911866766634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001254964697414189</v>
+        <v>0.0004546637769078559</v>
       </c>
       <c r="D11" t="n">
-        <v>-27.21378033873951</v>
+        <v>-61.38753894431049</v>
       </c>
       <c r="E11" t="n">
-        <v>7.667778750106472e-06</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03381804812026417</v>
+        <v>-0.02853024568659471</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02889861677972431</v>
+        <v>-0.02674799164873797</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05629369460086932</v>
+        <v>0.05389284532787528</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02897783521081542</v>
+        <v>-0.0255228205810788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001215069771774154</v>
+        <v>0.00044319023192568</v>
       </c>
       <c r="D12" t="n">
-        <v>-26.17668891537964</v>
+        <v>-57.87389626801608</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02318511056713351</v>
+        <v>4.061180681985198e-252</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03135935691114276</v>
+        <v>-0.02639145980376092</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02659631351048809</v>
+        <v>-0.02465418135839667</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05867419184004815</v>
+        <v>0.05600914341446282</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02246526300697579</v>
+        <v>-0.01844018663834551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001209330682470535</v>
+        <v>0.0004402634228673703</v>
       </c>
       <c r="D13" t="n">
-        <v>-19.50793351377066</v>
+        <v>-41.824774319745</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00884489969475203</v>
+        <v>5.830736950348806e-137</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02483553679796113</v>
+        <v>-0.01930308940757593</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02009498921599044</v>
+        <v>-0.0175772838691151</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06518676404388778</v>
+        <v>0.06309177735719611</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01864284624979025</v>
+        <v>-0.01486566938585221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001167192431761296</v>
+        <v>0.0004282648876418308</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.07852908114646</v>
+        <v>-34.38204691329545</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06176790163465253</v>
+        <v>4.103151666307971e-94</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02093052924169359</v>
+        <v>-0.01570505537331114</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0163551632578869</v>
+        <v>-0.01402628339839328</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06900918080107332</v>
+        <v>0.06666629460968941</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0154388395141743</v>
+        <v>-0.01184864904336384</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001138244655114129</v>
+        <v>0.0004105191210916494</v>
       </c>
       <c r="D15" t="n">
-        <v>-13.60079263754037</v>
+        <v>-28.91165082432362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05107635637843441</v>
+        <v>3.733402186643536e-60</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01766978492771871</v>
+        <v>-0.01265325383808668</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01320789410062989</v>
+        <v>-0.01104404424864101</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07221318753668926</v>
+        <v>0.06968331495217778</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01102138765715633</v>
+        <v>-0.008174794833566862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001115144283448239</v>
+        <v>0.0003944960241504752</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.762768071926745</v>
+        <v>-21.20696961925823</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02058493779190759</v>
+        <v>6.160787758623587e-16</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0132070570036651</v>
+        <v>-0.008947994852918447</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.008835718310647552</v>
+        <v>-0.007401594814215281</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07663063939370725</v>
+        <v>0.07335716916197475</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.009993473230392746</v>
+        <v>-0.006881754817985328</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001137747873653014</v>
+        <v>0.0004122856760108743</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.025561398946959</v>
+        <v>-17.06414040222145</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02183920892399069</v>
+        <v>6.911515476269726e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01222344484511807</v>
+        <v>-0.007689822041765011</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.007763501615667422</v>
+        <v>-0.006073687594205646</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07765855382047082</v>
+        <v>0.0746502091775563</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009500420610098776</v>
+        <v>-0.005589551231773072</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001165833673597264</v>
+        <v>0.0004273191206168012</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.343348080646816</v>
+        <v>-13.12663135059598</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04768414895756287</v>
+        <v>3.642439063838546e-11</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01178544009122718</v>
+        <v>-0.006427083562127928</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.007215401128970369</v>
+        <v>-0.004752018901418216</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0781516064407648</v>
+        <v>0.07594241276376855</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008448264562117032</v>
+        <v>-0.00481390789803541</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001165238192985914</v>
+        <v>0.0004238454221650106</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.838257728637599</v>
+        <v>-11.14499012116771</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02616636568073999</v>
+        <v>0.002230726533510322</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01073211774861443</v>
+        <v>-0.005644631880210525</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.006164411375619641</v>
+        <v>-0.003983183915860294</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07920376248874654</v>
+        <v>0.0767180560975062</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00727227474153812</v>
+        <v>-0.003825348524689179</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001163297098314098</v>
+        <v>0.0004217804948601853</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.920184047922851</v>
+        <v>-9.405915846298001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07990294666902462</v>
+        <v>0.0004993686053760845</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.009552323217461151</v>
+        <v>-0.004652025282463954</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00499222626561509</v>
+        <v>-0.002998671766914403</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08037975230932545</v>
+        <v>0.07770661547085245</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.006585139345793533</v>
+        <v>-0.003205876766728889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001181817886510019</v>
+        <v>0.0004245861671905199</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.847440750594997</v>
+        <v>-7.49696308564609</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05847148134704658</v>
+        <v>0.03684562912507663</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008901488199432924</v>
+        <v>-0.004038052546305702</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004268790492154139</v>
+        <v>-0.002373700987152077</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08106688770507003</v>
+        <v>0.07832608722881274</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006507210374511956</v>
+        <v>-0.003167623101848114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001170419631553584</v>
+        <v>0.0004199117778642859</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.803961638995036</v>
+        <v>-7.862341003561978</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03317470945198582</v>
+        <v>0.1202869288539428</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008801218831243416</v>
+        <v>-0.003990637201269249</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004213201917780498</v>
+        <v>-0.00234460900242698</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08114481667635162</v>
+        <v>0.07836434089369351</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006137056534593648</v>
+        <v>-0.002366041515784302</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0011753762042273</v>
+        <v>0.0004180229709331765</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.162430600881732</v>
+        <v>-5.972833798911966</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07276126827512183</v>
+        <v>0.1953375207126779</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008440779679675676</v>
+        <v>-0.003185353587954022</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003833333389511621</v>
+        <v>-0.001546729443614581</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08151497051626992</v>
+        <v>0.07916592247975732</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005494018145499009</v>
+        <v>-0.001475877131171742</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001167273872650154</v>
+        <v>0.0004052090406180862</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.145671863874922</v>
+        <v>-4.960482890023501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07363389507251451</v>
+        <v>0.2056482850097688</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007781860572457302</v>
+        <v>-0.002270074269457065</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003206175718540718</v>
+        <v>-0.0006816799928864178</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08215800890536457</v>
+        <v>0.08005608686436988</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.005428867261707333</v>
+        <v>-0.002016819415640612</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001140397602022361</v>
+        <v>0.0003883084376025476</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.76056766703802</v>
+        <v>-6.697891784284449</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1331750619818761</v>
+        <v>0.001453500013514659</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007664032347924702</v>
+        <v>-0.002777891870949813</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.003193702175489965</v>
+        <v>-0.001255746960331411</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08222315978915623</v>
+        <v>0.07951514457990101</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03810690410068082</v>
+        <v>0.135366388148127</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000564895534158478</v>
+        <v>0.002573534430795923</v>
       </c>
       <c r="D26" t="n">
-        <v>7.17718694030136</v>
+        <v>42.44227064394657</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4595837286936713</v>
+        <v>1.67010038170914e-43</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03578719966299687</v>
+        <v>0.1303223420097282</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04381361784740113</v>
+        <v>0.1404104342865257</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1257589311515444</v>
+        <v>0.2168983521436686</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-2final.xlsx
+++ b/hourly datasets/cap_gen_year-2final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.08153196399554162</v>
+        <v>0.0809337297310843</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.002531718893118817</v>
+        <v>-0.002564533570780574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005331245300238389</v>
+        <v>0.0005302726734807549</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.779610287713201</v>
+        <v>-3.801460071206026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02395263000825441</v>
+        <v>0.02538235258004293</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003576626419837724</v>
+        <v>-0.00360385153683426</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001486811366399911</v>
+        <v>-0.001525215604726887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0790002451024228</v>
+        <v>0.07836919616030373</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.00243516539028261</v>
+        <v>-0.001988017605720576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007689672475205888</v>
+        <v>0.0007550880386428339</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.471102375843091</v>
+        <v>-2.181981780544332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1720778460165632</v>
+        <v>0.1505080489026353</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003942317176089138</v>
+        <v>-0.0034679665787355</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0009280136044760815</v>
+        <v>-0.0005080686327056517</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07909679860525901</v>
+        <v>0.07894571212536372</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01639614775064075</v>
+        <v>0.01327757983522898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001670676520155925</v>
+        <v>0.001654355184937572</v>
       </c>
       <c r="D5" t="n">
-        <v>7.209847351451951</v>
+        <v>7.100136741951824</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1050469992975436</v>
+        <v>0.1397614551520178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01312167348506571</v>
+        <v>0.0100350949042662</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01967062201621579</v>
+        <v>0.01652006476619176</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09792811174618238</v>
+        <v>0.09421130956631328</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02606912521302118</v>
+        <v>0.02337302986025729</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002397724710856256</v>
+        <v>0.002282175678691821</v>
       </c>
       <c r="D6" t="n">
-        <v>16.34108086660036</v>
+        <v>16.55346974473402</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06482583496268202</v>
+        <v>0.07270841952809964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02136966179019903</v>
+        <v>0.01890003883701482</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03076858863584334</v>
+        <v>0.02784602088349976</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1076010892085628</v>
+        <v>0.1043067595913416</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06194933849454791</v>
+        <v>0.06072525035250913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002702056733527469</v>
+        <v>0.002580074270789586</v>
       </c>
       <c r="D7" t="n">
-        <v>19.02017140743589</v>
+        <v>19.35053367648536</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004183796074436664</v>
+        <v>0.003777315528102641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0566533943456923</v>
+        <v>0.05566838788877869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06724528264340351</v>
+        <v>0.06578211281623957</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1434813024900895</v>
+        <v>0.1416589800835934</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07832023662514136</v>
+        <v>0.08398722522237202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004773292697065111</v>
+        <v>0.007494729003395856</v>
       </c>
       <c r="D8" t="n">
-        <v>15.22462831511043</v>
+        <v>15.88428708799737</v>
       </c>
       <c r="E8" t="n">
-        <v>2.167649901899604e-05</v>
+        <v>0.8490279123101248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06896473453858969</v>
+        <v>0.073661571278269</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08767573871169303</v>
+        <v>0.08933990427471075</v>
       </c>
       <c r="H8" t="n">
-        <v>0.159852200620683</v>
+        <v>0.1649209549534563</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08952563088236325</v>
+        <v>0.09606758790937958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00361650455291395</v>
+        <v>0.008552922352741859</v>
       </c>
       <c r="D9" t="n">
-        <v>19.11372881127244</v>
+        <v>20.05169088170275</v>
       </c>
       <c r="E9" t="n">
-        <v>1.388182492630752e-13</v>
+        <v>1.486808206883345</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08243739716695214</v>
+        <v>0.08549887422893634</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09661386459777435</v>
+        <v>0.09757507413876154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1710575948779049</v>
+        <v>0.1770013176404639</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08153196399554162</v>
+        <v>-0.0809337297310843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003939230741259212</v>
+        <v>0.0003920056575330922</v>
       </c>
       <c r="D10" t="n">
-        <v>-218.0836416302556</v>
+        <v>-217.9558543052177</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08230404106765341</v>
+        <v>-0.08170204872785938</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08075988692342985</v>
+        <v>-0.0801654107343092</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02763911866766634</v>
+        <v>-0.02751522237590824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004546637769078559</v>
+        <v>0.000451952141198016</v>
       </c>
       <c r="D11" t="n">
-        <v>-61.38753894431049</v>
+        <v>-61.48814344549167</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02853024568659471</v>
+        <v>-0.02840103467418292</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02674799164873797</v>
+        <v>-0.02662941007763357</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05389284532787528</v>
+        <v>0.05341850735517606</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0255228205810788</v>
+        <v>-0.02561895353921108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00044319023192568</v>
+        <v>0.0004411818139526687</v>
       </c>
       <c r="D12" t="n">
-        <v>-57.87389626801608</v>
+        <v>-58.28145609609066</v>
       </c>
       <c r="E12" t="n">
-        <v>4.061180681985198e-252</v>
+        <v>2.641800208371284e-237</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02639145980376092</v>
+        <v>-0.02648365632876022</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02465418135839667</v>
+        <v>-0.02475425074966194</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05600914341446282</v>
+        <v>0.05531477619187322</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01844018663834551</v>
+        <v>-0.01856190107363049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004402634228673703</v>
+        <v>0.0004382298244307317</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.824774319745</v>
+        <v>-42.25923498939957</v>
       </c>
       <c r="E13" t="n">
-        <v>5.830736950348806e-137</v>
+        <v>1.706875599750996e-119</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01930308940757593</v>
+        <v>-0.01942081805666704</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0175772838691151</v>
+        <v>-0.01770298409059393</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06309177735719611</v>
+        <v>0.06237182865745382</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01486566938585221</v>
+        <v>-0.01488818756622416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004282648876418308</v>
+        <v>0.0004275420861589679</v>
       </c>
       <c r="D14" t="n">
-        <v>-34.38204691329545</v>
+        <v>-34.48480788429758</v>
       </c>
       <c r="E14" t="n">
-        <v>4.103151666307971e-94</v>
+        <v>7.571992216263494e-90</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01570505537331114</v>
+        <v>-0.01572615689498927</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01402628339839328</v>
+        <v>-0.01405021823745905</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06666629460968941</v>
+        <v>0.06604554216486014</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01184864904336384</v>
+        <v>-0.0117846184642399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004105191210916494</v>
+        <v>0.0004072306199791922</v>
       </c>
       <c r="D15" t="n">
-        <v>-28.91165082432362</v>
+        <v>-29.02075295483356</v>
       </c>
       <c r="E15" t="n">
-        <v>3.733402186643536e-60</v>
+        <v>8.025124196344983e-65</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01265325383808668</v>
+        <v>-0.01258277789038687</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01104404424864101</v>
+        <v>-0.01098645903809295</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06968331495217778</v>
+        <v>0.06914911126684439</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.008174794833566862</v>
+        <v>-0.008070970784693076</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003944960241504752</v>
+        <v>0.0003910365764215989</v>
       </c>
       <c r="D16" t="n">
-        <v>-21.20696961925823</v>
+        <v>-21.27826867468993</v>
       </c>
       <c r="E16" t="n">
-        <v>6.160787758623587e-16</v>
+        <v>5.656670589787951e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.008947994852918447</v>
+        <v>-0.008837390385019246</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.007401594814215281</v>
+        <v>-0.007304551184366909</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07335716916197475</v>
+        <v>0.07286275894639123</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006881754817985328</v>
+        <v>-0.006770598155825258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004122856760108743</v>
+        <v>0.0004085922308614207</v>
       </c>
       <c r="D17" t="n">
-        <v>-17.06414040222145</v>
+        <v>-16.98837781794215</v>
       </c>
       <c r="E17" t="n">
-        <v>6.911515476269726e-05</v>
+        <v>9.88361474139046e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.007689822041765011</v>
+        <v>-0.007571426333694549</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006073687594205646</v>
+        <v>-0.005969769977955967</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0746502091775563</v>
+        <v>0.07416313157525904</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005589551231773072</v>
+        <v>-0.005500790933622246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004273191206168012</v>
+        <v>0.0004238355378035065</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.12663135059598</v>
+        <v>-13.02341634267067</v>
       </c>
       <c r="E18" t="n">
-        <v>3.642439063838546e-11</v>
+        <v>5.954128386999007e-11</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.006427083562127928</v>
+        <v>-0.006331495540029972</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.004752018901418216</v>
+        <v>-0.004670086327214518</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07594241276376855</v>
+        <v>0.07543293879746206</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00481390789803541</v>
+        <v>-0.004737899696678608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004238454221650106</v>
+        <v>0.0004207862241820928</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.14499012116771</v>
+        <v>-11.06086548153847</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002230726533510322</v>
+        <v>0.002634212480795733</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.005644631880210525</v>
+        <v>-0.005562627734512846</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003983183915860294</v>
+        <v>-0.003913171658844371</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0767180560975062</v>
+        <v>0.07619583003440569</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003825348524689179</v>
+        <v>-0.003778044012253532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004217804948601853</v>
+        <v>0.0004183524003533438</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.405915846298001</v>
+        <v>-9.370989463213272</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0004993686053760845</v>
+        <v>0.002525642233749481</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.004652025282463954</v>
+        <v>-0.004598001801224562</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002998671766914403</v>
+        <v>-0.002958086223282503</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07770661547085245</v>
+        <v>0.07715568571883077</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003205876766728889</v>
+        <v>-0.003230813289845138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004245861671905199</v>
+        <v>0.0004213188796233984</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.49696308564609</v>
+        <v>-7.6571039407165</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03684562912507663</v>
+        <v>0.09973311691115745</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004038052546305702</v>
+        <v>-0.004056585278421149</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002373700987152077</v>
+        <v>-0.002405041301269127</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07832608722881274</v>
+        <v>0.07770291644123917</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.003167623101848114</v>
+        <v>-0.003274347599108988</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004199117778642859</v>
+        <v>0.0004169519593381877</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.862341003561978</v>
+        <v>-8.221899589120778</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1202869288539428</v>
+        <v>0.009391083899278632</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.003990637201269249</v>
+        <v>-0.00409156053792041</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00234460900242698</v>
+        <v>-0.002457134660297567</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07836434089369351</v>
+        <v>0.07765938213197532</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.002366041515784302</v>
+        <v>-0.002340639402637323</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004180229709331765</v>
+        <v>0.0004153655571685588</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.972833798911966</v>
+        <v>-5.988049266072362</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1953375207126779</v>
+        <v>0.07791003689228646</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.003185353587954022</v>
+        <v>-0.003154743016694851</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.001546729443614581</v>
+        <v>-0.001526535788579794</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07916592247975732</v>
+        <v>0.07859309032844698</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001475877131171742</v>
+        <v>-0.001396187881833496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004052090406180862</v>
+        <v>0.0004035261599364347</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.960482890023501</v>
+        <v>-4.875339189294928</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2056482850097688</v>
+        <v>0.1586498476313511</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002270074269457065</v>
+        <v>-0.002187086616930259</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0006816799928864178</v>
+        <v>-0.0006052891467367319</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08005608686436988</v>
+        <v>0.0795375418492508</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002016819415640612</v>
+        <v>-0.002013871394331485</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003883084376025476</v>
+        <v>0.0003869867805907043</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.697891784284449</v>
+        <v>-6.760041519131494</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001453500013514659</v>
+        <v>0.001281295372991222</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002777891870949813</v>
+        <v>-0.002772353433269541</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001255746960331411</v>
+        <v>-0.001255389355393428</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07951514457990101</v>
+        <v>0.07891985833675282</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.135366388148127</v>
+        <v>0.1350252025322468</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002573534430795923</v>
+        <v>0.008287794606869214</v>
       </c>
       <c r="D26" t="n">
-        <v>42.44227064394657</v>
+        <v>41.81494822305926</v>
       </c>
       <c r="E26" t="n">
-        <v>1.67010038170914e-43</v>
+        <v>1.73037923038201</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1303223420097282</v>
+        <v>0.1255549715918212</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1404104342865257</v>
+        <v>0.1339433837598136</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2168983521436686</v>
+        <v>0.2159589322633311</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-2final.xlsx
+++ b/hourly datasets/cap_gen_year-2final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,683 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.0809337297310843</v>
+        <v>0.1714218618064356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.002564533570780574</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0005302726734807549</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-3.801460071206026</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02538235258004293</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.00360385153683426</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.001525215604726887</v>
-      </c>
+        <v>0.06862810554000078</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.07836919616030373</v>
+        <v>0.2400499673464364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001988017605720576</v>
+        <v>0.07729658066110216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007550880386428339</v>
+        <v>0.008207141667661712</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.181981780544332</v>
+        <v>13.52976424354119</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1505080489026353</v>
+        <v>0.09240987743058483</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0034679665787355</v>
+        <v>0.06120650937137422</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0005080686327056517</v>
+        <v>0.09338665195082942</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07894571212536372</v>
+        <v>0.2487184424675378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01327757983522898</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001654355184937572</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.100136741951824</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1397614551520178</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0100350949042662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01652006476619176</v>
-      </c>
+        <v>0.09971076827597604</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.09421130956631328</v>
+        <v>0.2711326300824117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02337302986025729</v>
+        <v>0.03592895024965673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002282175678691821</v>
+        <v>0.003831277232705783</v>
       </c>
       <c r="D6" t="n">
-        <v>16.55346974473402</v>
+        <v>4.002794043001321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07270841952809964</v>
+        <v>0.03763378241087096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01890003883701482</v>
+        <v>0.02841778140129279</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02784602088349976</v>
+        <v>0.04344011909802018</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1043067595913416</v>
+        <v>0.2073508120560924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06072525035250913</v>
+        <v>0.02448705541993095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002580074270789586</v>
+        <v>0.00242472568116555</v>
       </c>
       <c r="D7" t="n">
-        <v>19.35053367648536</v>
+        <v>3.185303801100088</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003777315528102641</v>
+        <v>0.00443245753949711</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05566838788877869</v>
+        <v>0.01973349124659567</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06578211281623957</v>
+        <v>0.02924061959326655</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1416589800835934</v>
+        <v>0.1959089172263666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08398722522237202</v>
+        <v>0.02126674255269171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007494729003395856</v>
+        <v>0.00153039428733667</v>
       </c>
       <c r="D8" t="n">
-        <v>15.88428708799737</v>
+        <v>2.269439801262623</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8490279123101248</v>
+        <v>0.002076558998444469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.073661571278269</v>
+        <v>0.01826607995912775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08933990427471075</v>
+        <v>0.02426740514625605</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1649209549534563</v>
+        <v>0.1926886043591274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09606758790937958</v>
+        <v>0.0009520605981401532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008552922352741859</v>
+        <v>0.000686058151710808</v>
       </c>
       <c r="D9" t="n">
-        <v>20.05169088170275</v>
+        <v>0.05521316382215483</v>
       </c>
       <c r="E9" t="n">
-        <v>1.486808206883345</v>
+        <v>0.003540933327035393</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08549887422893634</v>
+        <v>-0.0003929962958930576</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09757507413876154</v>
+        <v>0.002297117492173364</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1770013176404639</v>
+        <v>0.1723739224045758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0809337297310843</v>
+        <v>0.001759029874309595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003920056575330922</v>
+        <v>0.0006681363611917298</v>
       </c>
       <c r="D10" t="n">
-        <v>-217.9558543052177</v>
+        <v>0.1058705216730492</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.01592609267592804</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08170204872785938</v>
+        <v>0.0004490747129181219</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0801654107343092</v>
+        <v>0.00306898503570107</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1731808916807452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02751522237590824</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000451952141198016</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-61.48814344549167</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.02840103467418292</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.02662941007763357</v>
-      </c>
+        <v>0.0244483854089541</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05341850735517606</v>
+        <v>0.1958702472153898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02561895353921108</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004411818139526687</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-58.28145609609066</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.641800208371284e-237</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.02648365632876022</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.02475425074966194</v>
-      </c>
+        <v>0.03660133943059993</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.05531477619187322</v>
+        <v>0.2080232012370356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01856190107363049</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004382298244307317</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-42.25923498939957</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.706875599750996e-119</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.01942081805666704</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.01770298409059393</v>
-      </c>
+        <v>0.04453098185237505</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06237182865745382</v>
+        <v>0.2159528436588107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01488818756622416</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004275420861589679</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-34.48480788429758</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.571992216263494e-90</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.01572615689498927</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.01405021823745905</v>
-      </c>
+        <v>0.05065527501660801</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.06604554216486014</v>
+        <v>0.2220771368230436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0117846184642399</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004072306199791922</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-29.02075295483356</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.025124196344983e-65</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.01258277789038687</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.01098645903809295</v>
-      </c>
+        <v>0.05437190762027726</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.06914911126684439</v>
+        <v>0.2257937694267129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.008070970784693076</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0003910365764215989</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-21.27826867468993</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.656670589787951e-13</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.008837390385019246</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.007304551184366909</v>
-      </c>
+        <v>0.05766296752892628</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07286275894639123</v>
+        <v>0.2290848293353619</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006770598155825258</v>
+        <v>0.06068732838686373</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004085922308614207</v>
+        <v>0.007198416011623876</v>
       </c>
       <c r="D17" t="n">
-        <v>-16.98837781794215</v>
+        <v>12.47197174358726</v>
       </c>
       <c r="E17" t="n">
-        <v>9.88361474139046e-05</v>
+        <v>0.02957915172233531</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.007571426333694549</v>
+        <v>0.04657260570337443</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.005969769977955967</v>
+        <v>0.07480205107035313</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07416313157525904</v>
+        <v>0.2321091901932994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005500790933622246</v>
+        <v>-0.1714218618064356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004238355378035065</v>
+        <v>0.008499160519663335</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.02341634267067</v>
+        <v>-37.71435016494664</v>
       </c>
       <c r="E18" t="n">
-        <v>5.954128386999007e-11</v>
+        <v>0.008722962245712434</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.006331495540029972</v>
+        <v>-0.1880873558737356</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.004670086327214518</v>
+        <v>-0.1547563677391358</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07543293879746206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004737899696678608</v>
+        <v>0.06170090923673013</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004207862241820928</v>
+        <v>0.007173808171538086</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.06086548153847</v>
+        <v>13.08679418599112</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002634212480795733</v>
+        <v>0.03150210855933248</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.005562627734512846</v>
+        <v>0.04763394796726589</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003913171658844371</v>
+        <v>0.07576787050619425</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07619583003440569</v>
+        <v>0.2331227710431658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003778044012253532</v>
+        <v>0.06376799982162727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004183524003533438</v>
+        <v>0.007036310133063908</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.370989463213272</v>
+        <v>13.11452101899688</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002525642233749481</v>
+        <v>0.03558473471530359</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.004598001801224562</v>
+        <v>0.04997155438488755</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002958086223282503</v>
+        <v>0.07756444525836717</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07715568571883077</v>
+        <v>0.2351898616280629</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003230813289845138</v>
+        <v>0.06427418897144165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004213188796233984</v>
+        <v>0.007358780625065062</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.6571039407165</v>
+        <v>13.06286986898874</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09973311691115745</v>
+        <v>0.04203745691148967</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004056585278421149</v>
+        <v>0.04984429241393829</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002405041301269127</v>
+        <v>0.07870408552894487</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07770291644123917</v>
+        <v>0.2356960507778773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.003274347599108988</v>
+        <v>0.06610084847974043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004169519593381877</v>
+        <v>0.006959947081613079</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.221899589120778</v>
+        <v>13.13123982603212</v>
       </c>
       <c r="E22" t="n">
-        <v>0.009391083899278632</v>
+        <v>0.04763304973365595</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.00409156053792041</v>
+        <v>0.05245259269462033</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.002457134660297567</v>
+        <v>0.07974910426486063</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07765938213197532</v>
+        <v>0.2375227102861761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.002340639402637323</v>
+        <v>0.06507664730602003</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004153655571685588</v>
+        <v>0.006876117693752317</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.988049266072362</v>
+        <v>13.2499813025996</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07791003689228646</v>
+        <v>0.05108272650566371</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.003154743016694851</v>
+        <v>0.05159521594842727</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.001526535788579794</v>
+        <v>0.07855807866361285</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07859309032844698</v>
+        <v>0.2364985091124557</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001396187881833496</v>
+        <v>0.06590034193478062</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004035261599364347</v>
+        <v>0.00696369092088037</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.875339189294928</v>
+        <v>12.89369172586677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1586498476313511</v>
+        <v>0.05967575108869264</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002187086616930259</v>
+        <v>0.05224806310182337</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0006052891467367319</v>
+        <v>0.07955262076773817</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0795375418492508</v>
+        <v>0.2373222037412163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002013871394331485</v>
+        <v>0.06574047678393727</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003869867805907043</v>
+        <v>0.006831237941795426</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.760041519131494</v>
+        <v>12.68128358840669</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001281295372991222</v>
+        <v>0.05285428433488487</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002772353433269541</v>
+        <v>0.0523478949702697</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001255389355393428</v>
+        <v>0.07913305859760478</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07891985833675282</v>
+        <v>0.2371623385903729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.06525548035073737</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007017996602558558</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.48257007160235</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06335540881973699</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05149697779985622</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.07901398290161876</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.236677342157173</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.06656984733192346</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.006925876090266648</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.62532936397325</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06197517060435279</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05299099811581683</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08014869654803014</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2379917091383591</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06743486977043055</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007019357960473432</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.46064720284553</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.07859235000001062</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0536732591401211</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0811964804007399</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2388567315768662</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.1350252025322468</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.008287794606869214</v>
-      </c>
-      <c r="D26" t="n">
-        <v>41.81494822305926</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.73037923038201</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1255549715918212</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1339433837598136</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2159589322633311</v>
+      <c r="B29" t="n">
+        <v>0.002438213902441273</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0007983126578177452</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1178451073335279</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.027457351623212</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0008728537020305146</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004003574102852001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1738600757088769</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-2final.xlsx
+++ b/hourly datasets/cap_gen_year-2final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1714218618064356</v>
+        <v>0.1103252621312025</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06862810554000078</v>
+        <v>0.07044001546058171</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2400499673464364</v>
+        <v>0.1807652775917842</v>
       </c>
     </row>
     <row r="4">
@@ -518,25 +518,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07729658066110216</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.008207141667661712</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.52976424354119</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09240987743058483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.06120650937137422</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.09338665195082942</v>
-      </c>
+        <v>0.07385558919791943</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2487184424675378</v>
+        <v>0.184180851329122</v>
       </c>
     </row>
     <row r="5">
@@ -546,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09971076827597604</v>
+        <v>0.09775034134038381</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -554,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2711326300824117</v>
+        <v>0.2080756034715864</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03592895024965673</v>
+        <v>0.03325985873978371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003831277232705783</v>
+        <v>0.004473998508572849</v>
       </c>
       <c r="D6" t="n">
-        <v>4.002794043001321</v>
+        <v>3.424008379840878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03763378241087096</v>
+        <v>0.04199102364994203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02841778140129279</v>
+        <v>0.02447910647282289</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04344011909802018</v>
+        <v>0.04204061100674416</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2073508120560924</v>
+        <v>0.1435851208709862</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02448705541993095</v>
+        <v>0.0215173363589086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00242472568116555</v>
+        <v>0.003392600486410443</v>
       </c>
       <c r="D7" t="n">
-        <v>3.185303801100088</v>
+        <v>2.282667270780109</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00443245753949711</v>
+        <v>0.01055812936102949</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01973349124659567</v>
+        <v>0.0148560266571679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02924061959326655</v>
+        <v>0.02817864606064947</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1959089172263666</v>
+        <v>0.1318425984901112</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02126674255269171</v>
+        <v>0.01772736247832942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00153039428733667</v>
+        <v>0.002272195427779487</v>
       </c>
       <c r="D8" t="n">
-        <v>2.269439801262623</v>
+        <v>1.406905289337423</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002076558998444469</v>
+        <v>0.007850944809638025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01826607995912775</v>
+        <v>0.01326402396897121</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02426740514625605</v>
+        <v>0.02219070098768769</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1926886043591274</v>
+        <v>0.128052624609532</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009520605981401532</v>
+        <v>-0.004661347441169542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000686058151710808</v>
+        <v>0.001404839124170956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05521316382215483</v>
+        <v>-1.185296486376566</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003540933327035393</v>
+        <v>0.01305524404181429</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0003929962958930576</v>
+        <v>-0.007424153017588027</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002297117492173364</v>
+        <v>-0.001898541864751114</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1723739224045758</v>
+        <v>0.105663914690033</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001759029874309595</v>
+        <v>-0.00368091932506366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006681363611917298</v>
+        <v>0.00136732187542834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1058705216730492</v>
+        <v>-1.074489543303176</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01592609267592804</v>
+        <v>0.01162710166436559</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004490747129181219</v>
+        <v>-0.006365935177336264</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00306898503570107</v>
+        <v>-0.0009959034727909342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1731808916807452</v>
+        <v>0.1066443428061389</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0244483854089541</v>
+        <v>0.02280907856625295</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1958702472153898</v>
+        <v>0.1331343406974555</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03660133943059993</v>
+        <v>0.03855261159719801</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.2080232012370356</v>
+        <v>0.1488778737284006</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04453098185237505</v>
+        <v>0.04638141113000906</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2159528436588107</v>
+        <v>0.1567066732612116</v>
       </c>
     </row>
     <row r="14">
@@ -758,15 +748,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05065527501660801</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>0.05111241853132317</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.007902941855811025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.4731162499843</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05140022376806589</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03561372598762831</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06661111107501799</v>
+      </c>
       <c r="H14" t="n">
-        <v>0.2220771368230436</v>
+        <v>0.1614376806625257</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05437190762027726</v>
+        <v>0.05428383737247126</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +784,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2257937694267129</v>
+        <v>0.1646090995036738</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05766296752892628</v>
+        <v>0.05753670300054921</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -802,7 +802,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2290848293353619</v>
+        <v>0.1678619651317518</v>
       </c>
     </row>
     <row r="17">
@@ -812,25 +812,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06068732838686373</v>
+        <v>0.06111087613414442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007198416011623876</v>
+        <v>0.007994937199944796</v>
       </c>
       <c r="D17" t="n">
-        <v>12.47197174358726</v>
+        <v>12.6138069044918</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02957915172233531</v>
+        <v>0.03049948613231279</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04657260570337443</v>
+        <v>0.04541438353591733</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07480205107035313</v>
+        <v>0.07680736873237144</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2321091901932994</v>
+        <v>0.171436138265347</v>
       </c>
     </row>
     <row r="18">
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1714218618064356</v>
+        <v>-0.1103252621312025</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008499160519663335</v>
+        <v>0.01079776571032865</v>
       </c>
       <c r="D18" t="n">
-        <v>-37.71435016494664</v>
+        <v>-17.82924910047596</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008722962245712434</v>
+        <v>0.02540323914022031</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1880873558737356</v>
+        <v>-0.131503506623016</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1547563677391358</v>
+        <v>-0.08914701763938887</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -868,25 +868,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06170090923673013</v>
+        <v>0.06053595480278799</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007173808171538086</v>
+        <v>0.007702350448359535</v>
       </c>
       <c r="D19" t="n">
-        <v>13.08679418599112</v>
+        <v>13.22787741156001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03150210855933248</v>
+        <v>0.03246888672319957</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04763394796726589</v>
+        <v>0.04542557724254849</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07576787050619425</v>
+        <v>0.0756463323630274</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2331227710431658</v>
+        <v>0.1708612169339905</v>
       </c>
     </row>
     <row r="20">
@@ -896,25 +896,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06376799982162727</v>
+        <v>0.06410739842610239</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007036310133063908</v>
+        <v>0.007714953658747629</v>
       </c>
       <c r="D20" t="n">
-        <v>13.11452101899688</v>
+        <v>13.16701210081154</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03558473471530359</v>
+        <v>0.03671214015031309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04997155438488755</v>
+        <v>0.04897271753641649</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07756444525836717</v>
+        <v>0.07924207931578836</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2351898616280629</v>
+        <v>0.1744326605573049</v>
       </c>
     </row>
     <row r="21">
@@ -924,25 +924,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06427418897144165</v>
+        <v>0.06493580266304178</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007358780625065062</v>
+        <v>0.008091728137715032</v>
       </c>
       <c r="D21" t="n">
-        <v>13.06286986898874</v>
+        <v>12.96415324187086</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04203745691148967</v>
+        <v>0.04375057291111382</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04984429241393829</v>
+        <v>0.04905205677625769</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07870408552894487</v>
+        <v>0.08081954854982591</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2356960507778773</v>
+        <v>0.1752610647942443</v>
       </c>
     </row>
     <row r="22">
@@ -952,25 +952,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06610084847974043</v>
+        <v>0.06671571238734235</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006959947081613079</v>
+        <v>0.007376203888435457</v>
       </c>
       <c r="D22" t="n">
-        <v>13.13123982603212</v>
+        <v>13.04364429162031</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04763304973365595</v>
+        <v>0.05029477987668156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05245259269462033</v>
+        <v>0.05224472843677717</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07974910426486063</v>
+        <v>0.0811866963379078</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2375227102861761</v>
+        <v>0.1770409745185449</v>
       </c>
     </row>
     <row r="23">
@@ -980,25 +980,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06507664730602003</v>
+        <v>0.06604278817599865</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006876117693752317</v>
+        <v>0.007459508090423148</v>
       </c>
       <c r="D23" t="n">
-        <v>13.2499813025996</v>
+        <v>12.99509838570167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05108272650566371</v>
+        <v>0.05522547490828641</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05159521594842727</v>
+        <v>0.05139904981892887</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07855807866361285</v>
+        <v>0.08068652653306826</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2364985091124557</v>
+        <v>0.1763680503072012</v>
       </c>
     </row>
     <row r="24">
@@ -1008,25 +1008,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06590034193478062</v>
+        <v>0.06708940406478939</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00696369092088037</v>
+        <v>0.007363541803498185</v>
       </c>
       <c r="D24" t="n">
-        <v>12.89369172586677</v>
+        <v>12.48003567790357</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05967575108869264</v>
+        <v>0.0651694139027521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05224806310182337</v>
+        <v>0.05264844764493008</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07955262076773817</v>
+        <v>0.08153036048464858</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2373222037412163</v>
+        <v>0.1774146661959919</v>
       </c>
     </row>
     <row r="25">
@@ -1036,25 +1036,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06574047678393727</v>
+        <v>0.06646527819494623</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006831237941795426</v>
+        <v>0.007271584233597669</v>
       </c>
       <c r="D25" t="n">
-        <v>12.68128358840669</v>
+        <v>12.21144560552265</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05285428433488487</v>
+        <v>0.05788372980018914</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0523478949702697</v>
+        <v>0.05220423129103739</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07913305859760478</v>
+        <v>0.08072632509885527</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2371623385903729</v>
+        <v>0.1767905403261488</v>
       </c>
     </row>
     <row r="26">
@@ -1064,25 +1064,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06525548035073737</v>
+        <v>0.06632014545162199</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007017996602558558</v>
+        <v>0.007410540842542534</v>
       </c>
       <c r="D26" t="n">
-        <v>12.48257007160235</v>
+        <v>11.90538710729939</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06335540881973699</v>
+        <v>0.0685210476628932</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05149697779985622</v>
+        <v>0.05178683286311346</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07901398290161876</v>
+        <v>0.08085345804013061</v>
       </c>
       <c r="H26" t="n">
-        <v>0.236677342157173</v>
+        <v>0.1766454075828245</v>
       </c>
     </row>
     <row r="27">
@@ -1092,25 +1092,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06656984733192346</v>
+        <v>0.06772988741370799</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006925876090266648</v>
+        <v>0.007407180514326568</v>
       </c>
       <c r="D27" t="n">
-        <v>12.62532936397325</v>
+        <v>11.81007766279104</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06197517060435279</v>
+        <v>0.06806502373730966</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05299099811581683</v>
+        <v>0.05320223046072899</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08014869654803014</v>
+        <v>0.08225754436668717</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2379917091383591</v>
+        <v>0.1780551495449105</v>
       </c>
     </row>
     <row r="28">
@@ -1120,25 +1120,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06743486977043055</v>
+        <v>0.07052531004476637</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007019357960473432</v>
+        <v>0.007581069563438876</v>
       </c>
       <c r="D28" t="n">
-        <v>12.46064720284553</v>
+        <v>11.72173514496359</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07859235000001062</v>
+        <v>0.08494648414399333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0536732591401211</v>
+        <v>0.05565808320331801</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0811964804007399</v>
+        <v>0.08539253688621451</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2388567315768662</v>
+        <v>0.1808505721759689</v>
       </c>
     </row>
     <row r="29">
@@ -1148,25 +1148,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002438213902441273</v>
+        <v>-0.001817690184450246</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007983126578177452</v>
+        <v>0.001277505654093689</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1178451073335279</v>
+        <v>-0.8963953259688853</v>
       </c>
       <c r="E29" t="n">
-        <v>0.027457351623212</v>
+        <v>0.0173566803027261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0008728537020305146</v>
+        <v>-0.004325435997626286</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004003574102852001</v>
+        <v>0.000690055628725829</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1738600757088769</v>
+        <v>0.1085075719467523</v>
       </c>
     </row>
   </sheetData>
